--- a/Web/files/ELM prediction/DKI 2/DKI1_CO_pred.xlsx
+++ b/Web/files/ELM prediction/DKI 2/DKI1_CO_pred.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wahyu Mubarak S\Downloads\data web\ELM prediction\DKI 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0976FBB2-6CF5-4984-9EBA-D056F6D45804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89F306C-FA5C-478C-A11C-62C32AD17C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,10 @@
     <t>Tanggal</t>
   </si>
   <si>
-    <t>Actual CO</t>
+    <t>CO Actual</t>
   </si>
   <si>
-    <t>Predict CO</t>
+    <t>CO Predict</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C2164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
